--- a/data/case1/5/V2_11.xlsx
+++ b/data/case1/5/V2_11.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999727216027</v>
+        <v>0.99999999438891241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99652442258144291</v>
+        <v>0.99649015012897113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.9852763446176569</v>
+        <v>0.98505608408413203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.98283480969345527</v>
+        <v>0.98247735996586716</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.97055187611287064</v>
+        <v>0.97005262133322256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.94070369071144966</v>
+        <v>0.93986314136779048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93693761844283419</v>
+        <v>0.93595448263506376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.93101375604437986</v>
+        <v>0.92979565801345365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.92971885275277577</v>
+        <v>0.92831233285649128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.92936664252672174</v>
+        <v>0.92777023833632311</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.92937754256552918</v>
+        <v>0.9277525702070466</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.92965501274977536</v>
+        <v>0.92797556845376439</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.93354841195505811</v>
+        <v>0.93158975123293741</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.93634431638440163</v>
+        <v>0.93425433970908633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94013958003492859</v>
+        <v>0.93793043478215621</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.93763325555053956</v>
+        <v>0.93542413826560611</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93392546090358863</v>
+        <v>0.93171639158989206</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93281653511408358</v>
+        <v>0.93060748218962352</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99383537336847105</v>
+        <v>0.99380161739892992</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9867181356378274</v>
+        <v>0.98668452166179088</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98531961402441925</v>
+        <v>0.98528602506200913</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.9840551014592116</v>
+        <v>0.9840215163693018</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9782415298883379</v>
+        <v>0.97802131116924074</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.96522064760975002</v>
+        <v>0.9650004606690592</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.95876364160204663</v>
+        <v>0.95854346779685962</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93704784823624565</v>
+        <v>0.93620735629690044</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93220090885951024</v>
+        <v>0.93136043113986078</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.91072677485139109</v>
+        <v>0.90988635647320804</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.89545474827508387</v>
+        <v>0.89461449568573448</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.88888414028252538</v>
+        <v>0.88804397906373245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.88123001751271923</v>
+        <v>0.88039006446011414</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.87955063077254825</v>
+        <v>0.87871072584088439</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.87903060328092653</v>
+        <v>0.87819071274502081</v>
       </c>
     </row>
   </sheetData>
